--- a/excel/finished/能介/能源环保部四空压站设备日点检表.xlsx
+++ b/excel/finished/能介/能源环保部四空压站设备日点检表.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12465" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="2" r:id="rId1"/>
-    <sheet name="空压站点检表" sheetId="3" r:id="rId2"/>
-    <sheet name="_metadata" sheetId="4" r:id="rId3"/>
+    <sheet name="_metadata" sheetId="4" r:id="rId2"/>
+    <sheet name="_Template" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -461,8 +461,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
@@ -512,7 +512,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="52"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -525,13 +531,40 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="62"/>
+      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="10"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="56"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="56"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="56"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -544,19 +577,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color indexed="56"/>
+      <sz val="11"/>
+      <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
@@ -564,14 +591,34 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="20"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="56"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="63"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -585,36 +632,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color indexed="23"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="56"/>
+      <color indexed="63"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -622,25 +641,6 @@
       <b/>
       <sz val="11"/>
       <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -660,7 +660,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="46"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="62"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="36"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -672,25 +714,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="36"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="11"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="27"/>
+        <fgColor indexed="53"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="42"/>
+        <fgColor indexed="31"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -702,7 +738,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="45"/>
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -720,7 +762,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="55"/>
+        <fgColor indexed="52"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -732,25 +774,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="44"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="62"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
+        <fgColor indexed="51"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -762,31 +786,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="46"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="52"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="51"/>
+        <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1126,8 +1126,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color indexed="52"/>
+      <bottom style="thick">
+        <color indexed="62"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="30"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1147,16 +1171,30 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color indexed="22"/>
+        <color indexed="62"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
+        <color indexed="62"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
         <color indexed="22"/>
       </bottom>
       <diagonal/>
@@ -1177,24 +1215,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="62"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color indexed="63"/>
       </left>
@@ -1209,171 +1229,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="30"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="62"/>
-      </top>
-      <bottom style="double">
-        <color indexed="62"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1984,10 +1984,26 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:V35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D2"/>
+      <selection activeCell="AA16" sqref="AA16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2202,9 +2218,7 @@
       </c>
     </row>
     <row r="6" spans="1:22">
-      <c r="A6" s="24">
-        <v>2</v>
-      </c>
+      <c r="A6" s="24"/>
       <c r="B6" s="25"/>
       <c r="C6" s="20" t="s">
         <v>28</v>
@@ -2236,9 +2250,7 @@
       <c r="V6" s="46"/>
     </row>
     <row r="7" spans="1:22">
-      <c r="A7" s="24">
-        <v>3</v>
-      </c>
+      <c r="A7" s="24"/>
       <c r="B7" s="25"/>
       <c r="C7" s="20" t="s">
         <v>31</v>
@@ -2270,9 +2282,7 @@
       <c r="V7" s="46"/>
     </row>
     <row r="8" spans="1:22">
-      <c r="A8" s="24">
-        <v>4</v>
-      </c>
+      <c r="A8" s="24"/>
       <c r="B8" s="25"/>
       <c r="C8" s="20" t="s">
         <v>35</v>
@@ -2304,9 +2314,7 @@
       <c r="V8" s="46"/>
     </row>
     <row r="9" spans="1:22">
-      <c r="A9" s="24">
-        <v>5</v>
-      </c>
+      <c r="A9" s="24"/>
       <c r="B9" s="25"/>
       <c r="C9" s="20" t="s">
         <v>38</v>
@@ -2338,9 +2346,7 @@
       <c r="V9" s="46"/>
     </row>
     <row r="10" spans="1:22">
-      <c r="A10" s="24">
-        <v>6</v>
-      </c>
+      <c r="A10" s="24"/>
       <c r="B10" s="25"/>
       <c r="C10" s="20" t="s">
         <v>40</v>
@@ -2372,9 +2378,7 @@
       <c r="V10" s="46"/>
     </row>
     <row r="11" spans="1:22">
-      <c r="A11" s="24">
-        <v>7</v>
-      </c>
+      <c r="A11" s="24"/>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
         <v>42</v>
@@ -2406,9 +2410,7 @@
       <c r="V11" s="46"/>
     </row>
     <row r="12" spans="1:22">
-      <c r="A12" s="24">
-        <v>8</v>
-      </c>
+      <c r="A12" s="24"/>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
         <v>43</v>
@@ -2440,9 +2442,7 @@
       <c r="V12" s="46"/>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="24">
-        <v>9</v>
-      </c>
+      <c r="A13" s="24"/>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
         <v>46</v>
@@ -2474,9 +2474,7 @@
       <c r="V13" s="46"/>
     </row>
     <row r="14" spans="1:22">
-      <c r="A14" s="24">
-        <v>10</v>
-      </c>
+      <c r="A14" s="24"/>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
         <v>49</v>
@@ -2510,9 +2508,7 @@
       </c>
     </row>
     <row r="15" spans="1:22">
-      <c r="A15" s="24">
-        <v>11</v>
-      </c>
+      <c r="A15" s="24"/>
       <c r="B15" s="25"/>
       <c r="C15" s="20" t="s">
         <v>51</v>
@@ -2546,9 +2542,7 @@
       </c>
     </row>
     <row r="16" spans="1:22">
-      <c r="A16" s="27">
-        <v>12</v>
-      </c>
+      <c r="A16" s="27"/>
       <c r="B16" s="28"/>
       <c r="C16" s="20" t="s">
         <v>53</v>
@@ -2616,9 +2610,7 @@
       <c r="V17" s="46"/>
     </row>
     <row r="18" spans="1:22">
-      <c r="A18" s="24">
-        <v>14</v>
-      </c>
+      <c r="A18" s="24"/>
       <c r="B18" s="25"/>
       <c r="C18" s="20" t="s">
         <v>60</v>
@@ -2650,9 +2642,7 @@
       <c r="V18" s="46"/>
     </row>
     <row r="19" spans="1:22">
-      <c r="A19" s="24">
-        <v>15</v>
-      </c>
+      <c r="A19" s="24"/>
       <c r="B19" s="25"/>
       <c r="C19" s="20" t="s">
         <v>61</v>
@@ -2684,9 +2674,7 @@
       <c r="V19" s="46"/>
     </row>
     <row r="20" spans="1:22">
-      <c r="A20" s="24">
-        <v>17</v>
-      </c>
+      <c r="A20" s="24"/>
       <c r="B20" s="25"/>
       <c r="C20" s="20" t="s">
         <v>62</v>
@@ -2754,9 +2742,7 @@
       <c r="V21" s="46"/>
     </row>
     <row r="22" spans="1:22">
-      <c r="A22" s="24">
-        <v>20</v>
-      </c>
+      <c r="A22" s="24"/>
       <c r="B22" s="25"/>
       <c r="C22" s="20" t="s">
         <v>67</v>
@@ -2788,9 +2774,7 @@
       <c r="V22" s="46"/>
     </row>
     <row r="23" spans="1:22">
-      <c r="A23" s="24">
-        <v>21</v>
-      </c>
+      <c r="A23" s="24"/>
       <c r="B23" s="25"/>
       <c r="C23" s="20" t="s">
         <v>69</v>
@@ -2860,9 +2844,7 @@
       </c>
     </row>
     <row r="25" spans="1:22">
-      <c r="A25" s="24">
-        <v>23</v>
-      </c>
+      <c r="A25" s="24"/>
       <c r="B25" s="25"/>
       <c r="C25" s="20" t="s">
         <v>73</v>
@@ -2894,9 +2876,7 @@
       <c r="V25" s="46"/>
     </row>
     <row r="26" spans="1:22">
-      <c r="A26" s="24">
-        <v>24</v>
-      </c>
+      <c r="A26" s="24"/>
       <c r="B26" s="25"/>
       <c r="C26" s="20" t="s">
         <v>76</v>
@@ -2928,9 +2908,7 @@
       <c r="V26" s="46"/>
     </row>
     <row r="27" spans="1:22">
-      <c r="A27" s="24">
-        <v>25</v>
-      </c>
+      <c r="A27" s="24"/>
       <c r="B27" s="25"/>
       <c r="C27" s="20" t="s">
         <v>79</v>
@@ -2996,9 +2974,7 @@
       <c r="V28" s="46"/>
     </row>
     <row r="29" spans="1:22">
-      <c r="A29" s="24">
-        <v>27</v>
-      </c>
+      <c r="A29" s="24"/>
       <c r="B29" s="25"/>
       <c r="C29" s="20" t="s">
         <v>73</v>
@@ -3030,9 +3006,7 @@
       <c r="V29" s="46"/>
     </row>
     <row r="30" spans="1:22">
-      <c r="A30" s="24">
-        <v>28</v>
-      </c>
+      <c r="A30" s="24"/>
       <c r="B30" s="25"/>
       <c r="C30" s="20" t="s">
         <v>83</v>
@@ -3064,9 +3038,7 @@
       <c r="V30" s="46"/>
     </row>
     <row r="31" customHeight="1" spans="1:22">
-      <c r="A31" s="27">
-        <v>29</v>
-      </c>
+      <c r="A31" s="27"/>
       <c r="B31" s="28"/>
       <c r="C31" s="20" t="s">
         <v>79</v>
@@ -3252,23 +3224,6 @@
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="V3:V4"/>
   </mergeCells>
-  <pageMargins left="0.314583333333333" right="0.196527777777778" top="0" bottom="0" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="9" orientation="landscape"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
